--- a/tests/Results/2022/2022-T1.xlsx
+++ b/tests/Results/2022/2022-T1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\workspace\documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-nosql\tests\Results\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61162EDC-8D98-4619-A8D5-627D1A672F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765191D9-4DE8-43DC-9BFB-9E35DC5301F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,98 +541,98 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <f>($B$2+B5)/$B$1</f>
-        <v>0.88888888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C28" si="0">($B$2+B6)/$B$1</f>
-        <v>0.88888888888888884</v>
+        <f>($B$2+B6)/$B$1</f>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <f>($B$2+B7)/$B$1</f>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <f>($B$2+B8)/$B$1</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <f>($B$2+B9)/$B$1</f>
+        <v>0.64444444444444449</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <f>($B$2+B10)/$B$1</f>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <f>($B$2+B11)/$B$1</f>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <f>($B$2+B12)/$B$1</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,194 +643,194 @@
         <v>31</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f>($B$2+B13)/$B$1</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <f>($B$2+B14)/$B$1</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <f>($B$2+B15)/$B$1</f>
+        <v>0.57777777777777772</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.68888888888888888</v>
+        <f>($B$2+B16)/$B$1</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.68888888888888888</v>
+        <f>($B$2+B17)/$B$1</f>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>($B$2+B18)/$B$1</f>
+        <v>0.68888888888888888</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>($B$2+B19)/$B$1</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>($B$2+B20)/$B$1</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.64444444444444449</v>
+        <f>($B$2+B21)/$B$1</f>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <f>($B$2+B22)/$B$1</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <f>($B$2+B23)/$B$1</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>($B$2+B24)/$B$1</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>($B$2+B25)/$B$1</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="0"/>
+        <f>($B$2+B26)/$B$1</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>($B$2+B27)/$B$1</f>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.57777777777777772</v>
+        <f>($B$2+B28)/$B$1</f>
+        <v>0.68888888888888888</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C28" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C28">
-      <sortCondition descending="1" ref="C4:C28"/>
+      <sortCondition ref="A4:A28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/Results/2022/2022-T1.xlsx
+++ b/tests/Results/2022/2022-T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-nosql\tests\Results\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765191D9-4DE8-43DC-9BFB-9E35DC5301F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47C898-8EA7-42EB-98EE-BAECD88FFDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>sara.fava.studio@fitstic-edu.com</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Studente</t>
   </si>
   <si>
-    <t>Voto</t>
-  </si>
-  <si>
     <t>Massimo</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>Correzione</t>
+  </si>
+  <si>
+    <t>Voto (/100)</t>
+  </si>
+  <si>
+    <t>Punteggio</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -185,6 +188,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,36 +514,40 @@
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -550,8 +558,12 @@
         <f>($B$2+B5)/$B$1</f>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>C5*100</f>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -562,8 +574,12 @@
         <f>($B$2+B6)/$B$1</f>
         <v>0.71111111111111114</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" ref="D6:D28" si="0">C6*100</f>
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -574,8 +590,12 @@
         <f>($B$2+B7)/$B$1</f>
         <v>0.62222222222222223</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -586,8 +606,12 @@
         <f>($B$2+B8)/$B$1</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -598,8 +622,12 @@
         <f>($B$2+B9)/$B$1</f>
         <v>0.64444444444444449</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>64.444444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,8 +638,12 @@
         <f>($B$2+B10)/$B$1</f>
         <v>0.71111111111111114</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,8 +654,12 @@
         <f>($B$2+B11)/$B$1</f>
         <v>0.62222222222222223</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -634,8 +670,12 @@
         <f>($B$2+B12)/$B$1</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -646,8 +686,12 @@
         <f>($B$2+B13)/$B$1</f>
         <v>0.73333333333333328</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,8 +702,12 @@
         <f>($B$2+B14)/$B$1</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,8 +718,12 @@
         <f>($B$2+B15)/$B$1</f>
         <v>0.57777777777777772</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>57.777777777777771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -682,8 +734,12 @@
         <f>($B$2+B16)/$B$1</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -694,8 +750,12 @@
         <f>($B$2+B17)/$B$1</f>
         <v>0.73333333333333328</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -706,8 +766,12 @@
         <f>($B$2+B18)/$B$1</f>
         <v>0.68888888888888888</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -718,8 +782,12 @@
         <f>($B$2+B19)/$B$1</f>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -730,8 +798,12 @@
         <f>($B$2+B20)/$B$1</f>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,8 +814,12 @@
         <f>($B$2+B21)/$B$1</f>
         <v>0.73333333333333328</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,8 +830,12 @@
         <f>($B$2+B22)/$B$1</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -766,8 +846,12 @@
         <f>($B$2+B23)/$B$1</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -778,8 +862,12 @@
         <f>($B$2+B24)/$B$1</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -790,8 +878,12 @@
         <f>($B$2+B25)/$B$1</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,8 +894,12 @@
         <f>($B$2+B26)/$B$1</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +910,12 @@
         <f>($B$2+B27)/$B$1</f>
         <v>0.75555555555555554</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>75.555555555555557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -826,13 +926,13 @@
         <f>($B$2+B28)/$B$1</f>
         <v>0.68888888888888888</v>
       </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>68.888888888888886</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C28" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C28">
-      <sortCondition ref="A4:A28"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A4:D28" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tests/Results/2022/2022-T1.xlsx
+++ b/tests/Results/2022/2022-T1.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-nosql\tests\Results\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47C898-8EA7-42EB-98EE-BAECD88FFDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E788D2-D393-46A3-9CFE-3EA7C1C9FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
+    <workbookView xWindow="2235" yWindow="120" windowWidth="25545" windowHeight="15555" activeTab="2" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="teoria" sheetId="1" r:id="rId1"/>
+    <sheet name="cassandra" sheetId="2" r:id="rId2"/>
+    <sheet name="totale" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cassandra!$A$4:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">teoria!$A$4:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">totale!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>sara.fava.studio@fitstic-edu.com</t>
   </si>
@@ -128,6 +132,42 @@
   </si>
   <si>
     <t>Punteggio</t>
+  </si>
+  <si>
+    <t>elena.dicicco.studio@fitstic-edu.com</t>
+  </si>
+  <si>
+    <t>lorena.garavini.studio@fitstic-edu.com</t>
+  </si>
+  <si>
+    <t>federico.gori.studio@fitsic-edu.com</t>
+  </si>
+  <si>
+    <t>gianluca.mattiello.studio@fitatic-edu.com</t>
+  </si>
+  <si>
+    <t>rocco.stefanelli.studio@fitsic-edu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
+    <t>Prova 1</t>
+  </si>
+  <si>
+    <t>Prova 2</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Prova 3</t>
+  </si>
+  <si>
+    <t>Prova 4</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -157,12 +197,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -189,11 +235,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -505,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,391 +630,1593 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <f>($B$2+B5)/$B$1</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D5" s="7">
+        <f>C5*100</f>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3">
+        <f>($B$2+B6)/$B$1</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6*100</f>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
+        <f>($B$2+B7)/$B$1</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="D5">
-        <f>C5*100</f>
+      <c r="D7" s="7">
+        <f>C7*100</f>
         <v>77.777777777777786</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <f>($B$2+B8)/$B$1</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8*100</f>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <f>($B$2+B9)/$B$1</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9*100</f>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <f>($B$2+B10)/$B$1</f>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="D10" s="7">
+        <f>C10*100</f>
+        <v>75.555555555555557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <f>($B$2+B11)/$B$1</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D11" s="7">
+        <f>C11*100</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <f>($B$2+B12)/$B$1</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D12" s="7">
+        <f>C12*100</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <f>($B$2+B13)/$B$1</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13*100</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <f>($B$2+B14)/$B$1</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D14" s="7">
+        <f>C14*100</f>
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <f>($B$2+B15)/$B$1</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D15" s="7">
+        <f>C15*100</f>
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
+        <f>($B$2+B16)/$B$1</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="D16" s="7">
+        <f>C16*100</f>
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <f>($B$2+B17)/$B$1</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="D17" s="7">
+        <f>C17*100</f>
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <f>($B$2+B18)/$B$1</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D18" s="7">
+        <f>C18*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3">
+        <f>($B$2+B19)/$B$1</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19" s="7">
+        <f>C19*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
+        <f>($B$2+B20)/$B$1</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="7">
+        <f>C20*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3">
+        <f>($B$2+B21)/$B$1</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="D21" s="7">
+        <f>C21*100</f>
+        <v>64.444444444444443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3">
+        <f>($B$2+B22)/$B$1</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D22" s="7">
+        <f>C22*100</f>
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
+        <f>($B$2+B23)/$B$1</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D23" s="7">
+        <f>C23*100</f>
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <f>($B$2+B24)/$B$1</f>
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="7">
+        <f>C24*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3">
+        <f>($B$2+B25)/$B$1</f>
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="7">
+        <f>C25*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <f>($B$2+B26)/$B$1</f>
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="7">
+        <f>C26*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <f>($B$2+B27)/$B$1</f>
+        <v>0.6</v>
+      </c>
+      <c r="D27" s="7">
+        <f>C27*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <f>($B$2+B28)/$B$1</f>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D28" s="7">
+        <f>C28*100</f>
+        <v>57.777777777777771</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:D28" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D28">
+      <sortCondition descending="1" ref="D4:D28"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F27D270-22EB-49D5-B444-6FDB73496703}">
+  <dimension ref="A1:D129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10">
+        <f>($C$2+B5)/$C$1*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3">
-        <f>($B$2+B6)/$B$1</f>
-        <v>0.71111111111111114</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D28" si="0">C6*100</f>
-        <v>71.111111111111114</v>
-      </c>
+      <c r="B6" s="9">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10">
+        <f>($C$2+B6)/$C$1*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3">
-        <f>($B$2+B7)/$B$1</f>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>62.222222222222221</v>
-      </c>
+      <c r="B7" s="9">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10">
+        <f>($C$2+B7)/$C$1*100</f>
+        <v>80</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3">
-        <f>($B$2+B8)/$B$1</f>
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B8" s="9">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10">
+        <f>($C$2+B8)/$C$1*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3">
-        <f>($B$2+B9)/$B$1</f>
-        <v>0.64444444444444449</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>64.444444444444443</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="9">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10">
+        <f>($C$2+B9)/$C$1*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3">
-        <f>($B$2+B10)/$B$1</f>
-        <v>0.71111111111111114</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>71.111111111111114</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B10" s="9">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10">
+        <f>($C$2+B10)/$C$1*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3">
-        <f>($B$2+B11)/$B$1</f>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>62.222222222222221</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B11" s="9">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10">
+        <f>($C$2+B11)/$C$1*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3">
-        <f>($B$2+B12)/$B$1</f>
-        <v>0.6</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10">
+        <f>($C$2+B12)/$C$1*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3">
-        <f>($B$2+B13)/$B$1</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>73.333333333333329</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10">
+        <f>($C$2+B13)/$C$1*100</f>
+        <v>70</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3">
-        <f>($B$2+B14)/$B$1</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B14" s="9">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10">
+        <f>($C$2+B14)/$C$1*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
         <v>24</v>
       </c>
-      <c r="C15" s="3">
-        <f>($B$2+B15)/$B$1</f>
-        <v>0.57777777777777772</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>57.777777777777771</v>
-      </c>
+      <c r="C15" s="10">
+        <f>($C$2+B15)/$C$1*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3">
-        <f>($B$2+B16)/$B$1</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>88.888888888888886</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10">
+        <f>($C$2+B16)/$C$1*100</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3">
-        <f>($B$2+B17)/$B$1</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>73.333333333333329</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10">
+        <f>($C$2+B17)/$C$1*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <f>($B$2+B18)/$B$1</f>
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>68.888888888888886</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10">
+        <f>($C$2+B18)/$C$1*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3">
-        <f>($B$2+B19)/$B$1</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>77.777777777777786</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>23</v>
+      </c>
+      <c r="C19" s="10">
+        <f>($C$2+B19)/$C$1*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3">
-        <f>($B$2+B20)/$B$1</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>77.777777777777786</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
+        <f>($C$2+B20)/$C$1*100</f>
+        <v>90</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3">
-        <f>($B$2+B21)/$B$1</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>73.333333333333329</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B21" s="9">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10">
+        <f>($C$2+B21)/$C$1*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3">
-        <f>($B$2+B22)/$B$1</f>
-        <v>0.6</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10">
+        <f>($C$2+B22)/$C$1*100</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3">
-        <f>($B$2+B23)/$B$1</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B23" s="9">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10">
+        <f>($C$2+B23)/$C$1*100</f>
+        <v>90</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3">
-        <f>($B$2+B24)/$B$1</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>88.888888888888886</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B24" s="9">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10">
+        <f>($C$2+B24)/$C$1*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3">
-        <f>($B$2+B25)/$B$1</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B25" s="9">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10">
+        <f>($C$2+B25)/$C$1*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3">
-        <f>($B$2+B26)/$B$1</f>
-        <v>0.6</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B26" s="9">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <f>($C$2+B26)/$C$1*100</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3">
-        <f>($B$2+B27)/$B$1</f>
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>75.555555555555557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10">
+        <f>($C$2+B27)/$C$1*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="9">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10">
+        <f>($C$2+B28)/$C$1*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3">
-        <f>($B$2+B28)/$B$1</f>
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>68.888888888888886</v>
-      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10">
+        <f>($C$2+B29)/$C$1*100</f>
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D28" xr:uid="{25E9C010-6E3B-47FC-8521-0FFBE2A02171}"/>
+  <autoFilter ref="A4:C29" xr:uid="{3F27D270-22EB-49D5-B444-6FDB73496703}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C29">
+      <sortCondition ref="A4:A29"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="C2" s="11">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F2" s="11">
+        <f>AVERAGE(B2:E2)</f>
+        <v>80.555555555555571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="C3" s="11">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F26" si="0">AVERAGE(B3:E3)</f>
+        <v>83.888888888888886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="C4" s="11">
+        <v>80</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11">
+        <v>60</v>
+      </c>
+      <c r="C6" s="11">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>68.333333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11">
+        <v>64.444444444444443</v>
+      </c>
+      <c r="C7" s="11">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="C8" s="11">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>78.888888888888886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="C9" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>64.444444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>60</v>
+      </c>
+      <c r="C10" s="11">
+        <v>70</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="C11" s="11">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="C12" s="11">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>76.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11">
+        <v>57.777777777777771</v>
+      </c>
+      <c r="C13" s="11">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>57.222222222222214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="C14" s="11">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="C15" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="C16" s="11">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>76.111111111111114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="C17" s="11">
+        <v>90</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>83.888888888888886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="C18" s="11">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>87.222222222222229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="C19" s="11">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>63.333333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11">
+        <v>90</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="C21" s="11">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="C22" s="11">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>92.777777777777771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="C23" s="11">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>61.666666666666657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="11">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>68.333333333333343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="C25" s="11">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>79.444444444444457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="C26" s="11">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>82.777777777777771</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F26" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/Results/2022/2022-T1.xlsx
+++ b/tests/Results/2022/2022-T1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-nosql\tests\Results\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E788D2-D393-46A3-9CFE-3EA7C1C9FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5B1F9-7DB9-4CFB-BE94-3A9E9EFA0ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="120" windowWidth="25545" windowHeight="15555" activeTab="2" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
   </bookViews>
   <sheets>
     <sheet name="teoria" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <t>Prova 4</t>
   </si>
   <si>
-    <t>???</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -259,22 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,11 +621,11 @@
         <v>38</v>
       </c>
       <c r="C5" s="3">
-        <f>($B$2+B5)/$B$1</f>
+        <f t="shared" ref="C5:C28" si="0">($B$2+B5)/$B$1</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="D5" s="7">
-        <f>C5*100</f>
+        <f t="shared" ref="D5:D28" si="1">C5*100</f>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -652,11 +637,11 @@
         <v>38</v>
       </c>
       <c r="C6" s="3">
-        <f>($B$2+B6)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D6" s="7">
-        <f>C6*100</f>
+        <f t="shared" si="1"/>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -668,11 +653,11 @@
         <v>33</v>
       </c>
       <c r="C7" s="3">
-        <f>($B$2+B7)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="D7" s="7">
-        <f>C7*100</f>
+        <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
     </row>
@@ -684,11 +669,11 @@
         <v>33</v>
       </c>
       <c r="C8" s="3">
-        <f>($B$2+B8)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="D8" s="7">
-        <f>C8*100</f>
+        <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
     </row>
@@ -700,11 +685,11 @@
         <v>33</v>
       </c>
       <c r="C9" s="3">
-        <f>($B$2+B9)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="D9" s="7">
-        <f>C9*100</f>
+        <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
     </row>
@@ -716,11 +701,11 @@
         <v>32</v>
       </c>
       <c r="C10" s="3">
-        <f>($B$2+B10)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
       <c r="D10" s="7">
-        <f>C10*100</f>
+        <f t="shared" si="1"/>
         <v>75.555555555555557</v>
       </c>
     </row>
@@ -732,11 +717,11 @@
         <v>31</v>
       </c>
       <c r="C11" s="3">
-        <f>($B$2+B11)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="D11" s="7">
-        <f>C11*100</f>
+        <f t="shared" si="1"/>
         <v>73.333333333333329</v>
       </c>
     </row>
@@ -748,11 +733,11 @@
         <v>31</v>
       </c>
       <c r="C12" s="3">
-        <f>($B$2+B12)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="D12" s="7">
-        <f>C12*100</f>
+        <f t="shared" si="1"/>
         <v>73.333333333333329</v>
       </c>
     </row>
@@ -764,11 +749,11 @@
         <v>31</v>
       </c>
       <c r="C13" s="3">
-        <f>($B$2+B13)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="D13" s="7">
-        <f>C13*100</f>
+        <f t="shared" si="1"/>
         <v>73.333333333333329</v>
       </c>
     </row>
@@ -780,11 +765,11 @@
         <v>30</v>
       </c>
       <c r="C14" s="3">
-        <f>($B$2+B14)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.71111111111111114</v>
       </c>
       <c r="D14" s="7">
-        <f>C14*100</f>
+        <f t="shared" si="1"/>
         <v>71.111111111111114</v>
       </c>
     </row>
@@ -796,11 +781,11 @@
         <v>30</v>
       </c>
       <c r="C15" s="3">
-        <f>($B$2+B15)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.71111111111111114</v>
       </c>
       <c r="D15" s="7">
-        <f>C15*100</f>
+        <f t="shared" si="1"/>
         <v>71.111111111111114</v>
       </c>
     </row>
@@ -812,11 +797,11 @@
         <v>29</v>
       </c>
       <c r="C16" s="3">
-        <f>($B$2+B16)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.68888888888888888</v>
       </c>
       <c r="D16" s="7">
-        <f>C16*100</f>
+        <f t="shared" si="1"/>
         <v>68.888888888888886</v>
       </c>
     </row>
@@ -828,11 +813,11 @@
         <v>29</v>
       </c>
       <c r="C17" s="3">
-        <f>($B$2+B17)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.68888888888888888</v>
       </c>
       <c r="D17" s="7">
-        <f>C17*100</f>
+        <f t="shared" si="1"/>
         <v>68.888888888888886</v>
       </c>
     </row>
@@ -844,11 +829,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="3">
-        <f>($B$2+B18)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="D18" s="7">
-        <f>C18*100</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -860,11 +845,11 @@
         <v>28</v>
       </c>
       <c r="C19" s="3">
-        <f>($B$2+B19)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" s="7">
-        <f>C19*100</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -876,11 +861,11 @@
         <v>28</v>
       </c>
       <c r="C20" s="3">
-        <f>($B$2+B20)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" s="7">
-        <f>C20*100</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -892,11 +877,11 @@
         <v>27</v>
       </c>
       <c r="C21" s="3">
-        <f>($B$2+B21)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.64444444444444449</v>
       </c>
       <c r="D21" s="7">
-        <f>C21*100</f>
+        <f t="shared" si="1"/>
         <v>64.444444444444443</v>
       </c>
     </row>
@@ -908,11 +893,11 @@
         <v>26</v>
       </c>
       <c r="C22" s="3">
-        <f>($B$2+B22)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.62222222222222223</v>
       </c>
       <c r="D22" s="7">
-        <f>C22*100</f>
+        <f t="shared" si="1"/>
         <v>62.222222222222221</v>
       </c>
     </row>
@@ -924,11 +909,11 @@
         <v>26</v>
       </c>
       <c r="C23" s="3">
-        <f>($B$2+B23)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.62222222222222223</v>
       </c>
       <c r="D23" s="7">
-        <f>C23*100</f>
+        <f t="shared" si="1"/>
         <v>62.222222222222221</v>
       </c>
     </row>
@@ -940,11 +925,11 @@
         <v>25</v>
       </c>
       <c r="C24" s="3">
-        <f>($B$2+B24)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="D24" s="7">
-        <f>C24*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -956,11 +941,11 @@
         <v>25</v>
       </c>
       <c r="C25" s="3">
-        <f>($B$2+B25)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="D25" s="7">
-        <f>C25*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -972,11 +957,11 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <f>($B$2+B26)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="D26" s="7">
-        <f>C26*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -988,11 +973,11 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>($B$2+B27)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="D27" s="7">
-        <f>C27*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1004,11 +989,11 @@
         <v>24</v>
       </c>
       <c r="C28" s="3">
-        <f>($B$2+B28)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.57777777777777772</v>
       </c>
       <c r="D28" s="7">
-        <f>C28*100</f>
+        <f t="shared" si="1"/>
         <v>57.777777777777771</v>
       </c>
     </row>
@@ -1078,7 +1063,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="10">
-        <f>($C$2+B5)/$C$1*100</f>
+        <f t="shared" ref="C5:C29" si="0">($C$2+B5)/$C$1*100</f>
         <v>83.333333333333343</v>
       </c>
       <c r="D5" s="7"/>
@@ -1091,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="10">
-        <f>($C$2+B6)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
       <c r="D6" s="7"/>
@@ -1104,7 +1089,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="10">
-        <f>($C$2+B7)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D7" s="7"/>
@@ -1117,7 +1102,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="10">
-        <f>($C$2+B8)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
       <c r="D8" s="7"/>
@@ -1130,7 +1115,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="10">
-        <f>($C$2+B9)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>76.666666666666671</v>
       </c>
       <c r="D9" s="7"/>
@@ -1143,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <f>($C$2+B10)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
       <c r="D10" s="7"/>
@@ -1156,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="10">
-        <f>($C$2+B11)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
       <c r="D11" s="7"/>
@@ -1169,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="10">
-        <f>($C$2+B12)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
       <c r="D12" s="7"/>
@@ -1182,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="10">
-        <f>($C$2+B13)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D13" s="7"/>
@@ -1195,7 +1180,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="10">
-        <f>($C$2+B14)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
       <c r="D14" s="7"/>
@@ -1208,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="10">
-        <f>($C$2+B15)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
       <c r="D15" s="7"/>
@@ -1221,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="10">
-        <f>($C$2+B16)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
       <c r="D16" s="7"/>
@@ -1234,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="10">
-        <f>($C$2+B17)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
       <c r="D17" s="7"/>
@@ -1247,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10">
-        <f>($C$2+B18)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
       <c r="D18" s="7"/>
@@ -1260,7 +1245,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="10">
-        <f>($C$2+B19)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
       <c r="D19" s="7"/>
@@ -1273,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="10">
-        <f>($C$2+B20)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D20" s="7"/>
@@ -1286,7 +1271,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="10">
-        <f>($C$2+B21)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
       <c r="D21" s="7"/>
@@ -1299,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="10">
-        <f>($C$2+B22)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
       <c r="D22" s="7"/>
@@ -1312,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="10">
-        <f>($C$2+B23)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D23" s="7"/>
@@ -1325,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="10">
-        <f>($C$2+B24)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
       <c r="D24" s="7"/>
@@ -1338,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="10">
-        <f>($C$2+B25)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
       <c r="D25" s="7"/>
@@ -1351,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="10">
-        <f>($C$2+B26)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
       <c r="D26" s="7"/>
@@ -1364,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="10">
-        <f>($C$2+B27)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>76.666666666666671</v>
       </c>
       <c r="D27" s="7"/>
@@ -1377,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="10">
-        <f>($C$2+B28)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
       <c r="D28" s="7"/>
@@ -1390,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="10">
-        <f>($C$2+B29)/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
     </row>
@@ -1809,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,5 +2203,6 @@
   </sheetData>
   <autoFilter ref="A1:F26" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/Results/2022/2022-T1.xlsx
+++ b/tests/Results/2022/2022-T1.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-nosql\tests\Results\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5B1F9-7DB9-4CFB-BE94-3A9E9EFA0ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABADB13-62A9-4F60-9B59-A6077C2A884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
+    <workbookView xWindow="-180" yWindow="-180" windowWidth="29160" windowHeight="16560" activeTab="3" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
   </bookViews>
   <sheets>
     <sheet name="teoria" sheetId="1" r:id="rId1"/>
     <sheet name="cassandra" sheetId="2" r:id="rId2"/>
-    <sheet name="totale" sheetId="3" r:id="rId3"/>
+    <sheet name="neo4j" sheetId="4" r:id="rId3"/>
+    <sheet name="totale" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cassandra!$A$4:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">neo4j!$A$4:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">teoria!$A$4:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">totale!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">totale!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>sara.fava.studio@fitstic-edu.com</t>
   </si>
@@ -168,13 +170,19 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Voto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +199,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -220,10 +243,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,8 +279,39 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,15 +630,15 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -591,7 +646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -599,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -613,7 +668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -629,7 +684,7 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -645,7 +700,7 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -661,7 +716,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +732,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -693,7 +748,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,7 +764,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -725,7 +780,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +796,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,7 +812,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,7 +828,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,7 +844,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,7 +860,7 @@
         <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -821,7 +876,7 @@
         <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,7 +892,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -853,7 +908,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -869,7 +924,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,7 +940,7 @@
         <v>64.444444444444443</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -901,7 +956,7 @@
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -917,7 +972,7 @@
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -933,7 +988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,7 +1004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,7 +1020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1016,15 +1071,15 @@
       <selection activeCell="C5" sqref="C5:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.15234375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="13.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1032,7 +1087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1040,11 +1095,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1123,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1136,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1149,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1162,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1175,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1188,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1201,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1214,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1227,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1185,7 +1240,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1253,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1211,7 +1266,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1279,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1292,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1305,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1318,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1331,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1344,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1357,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1370,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1383,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1341,7 +1396,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1409,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1422,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1379,403 +1434,403 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
@@ -1791,21 +1846,752 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB08151-2B91-4CD8-950A-5B699916935E}">
+  <dimension ref="A1:C123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="38.15234375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10">
+        <f>B5/$C$1*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10">
+        <f>B6/$C$1*100</f>
+        <v>82.142857142857139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10">
+        <f>B7/$C$1*100</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="22">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <f>B8/$C$1*100</f>
+        <v>89.285714285714292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10">
+        <f>B9/$C$1*100</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10">
+        <f>B10/$C$1*100</f>
+        <v>82.142857142857139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10">
+        <f>B11/$C$1*100</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <f>B12/$C$1*100</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10">
+        <f>B13/$C$1*100</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10">
+        <f>B14/$C$1*100</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
+        <f>B15/$C$1*100</f>
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10">
+        <f>B16/$C$1*100</f>
+        <v>60.714285714285708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10">
+        <f>B17/$C$1*100</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10">
+        <f>B18/$C$1*100</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10">
+        <f>B19/$C$1*100</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10">
+        <f>B20/$C$1*100</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10">
+        <f>B21/$C$1*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10">
+        <f>B22/$C$1*100</f>
+        <v>60.714285714285708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="9">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10">
+        <f>B23/$C$1*100</f>
+        <v>89.285714285714292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="22">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10">
+        <f>B24/$C$1*100</f>
+        <v>82.142857142857139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10">
+        <f>B25/$C$1*100</f>
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="22">
+        <v>16</v>
+      </c>
+      <c r="C26" s="10">
+        <f>B26/$C$1*100</f>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="21">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10">
+        <f>B27/$C$1*100</f>
+        <v>42.857142857142854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="9">
+        <v>22</v>
+      </c>
+      <c r="C28" s="10">
+        <f>B28/$C$1*100</f>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <f>B29/$C$1*100</f>
+        <v>92.857142857142861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="1"/>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1"/>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="1"/>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="1"/>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="1"/>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="1"/>
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1"/>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1"/>
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1"/>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="1"/>
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="1"/>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="1"/>
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="1"/>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="1"/>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="1"/>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="1"/>
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="1"/>
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="1"/>
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="1"/>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="1"/>
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="1"/>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="1"/>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="1"/>
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="1"/>
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="1"/>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="1"/>
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="1"/>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="1"/>
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="1"/>
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="1"/>
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="1"/>
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="1"/>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="1"/>
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="1"/>
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="1"/>
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="1"/>
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="1"/>
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="1"/>
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="1"/>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="1"/>
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="1"/>
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="1"/>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="1"/>
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="1"/>
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="1"/>
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="1"/>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="1"/>
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="1"/>
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="1"/>
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="1"/>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="1"/>
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="1"/>
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="1"/>
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="1"/>
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="1"/>
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="1"/>
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="1"/>
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="1"/>
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="1"/>
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="1"/>
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="1"/>
+      <c r="B123" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:C24" xr:uid="{3EB08151-2B91-4CD8-950A-5B699916935E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C29">
+      <sortCondition ref="A4:A24"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{CB70837D-113F-4C81-8CC2-AE4B0E646C3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.15234375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1825,7 +2611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1835,12 +2621,15 @@
       <c r="C2" s="11">
         <v>83.333333333333343</v>
       </c>
+      <c r="D2" s="23">
+        <v>75</v>
+      </c>
       <c r="F2" s="11">
-        <f>AVERAGE(B2:E2)</f>
-        <v>80.555555555555571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F2:F26" si="0">AVERAGE(B2:E2)</f>
+        <v>78.703703703703709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1850,12 +2639,15 @@
       <c r="C3" s="11">
         <v>96.666666666666671</v>
       </c>
+      <c r="D3" s="23">
+        <v>82.142857142857139</v>
+      </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F26" si="0">AVERAGE(B3:E3)</f>
-        <v>83.888888888888886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>83.306878306878303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1865,12 +2657,15 @@
       <c r="C4" s="11">
         <v>80</v>
       </c>
+      <c r="D4" s="23">
+        <v>78.571428571428569</v>
+      </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>71.111111111111114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73.597883597883595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1880,12 +2675,15 @@
       <c r="C5" s="11">
         <v>83.333333333333343</v>
       </c>
+      <c r="D5" s="23">
+        <v>79</v>
+      </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.166666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1895,12 +2693,15 @@
       <c r="C6" s="11">
         <v>76.666666666666671</v>
       </c>
+      <c r="D6" s="23">
+        <v>78.571428571428569</v>
+      </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>68.333333333333343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71.746031746031747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1910,12 +2711,15 @@
       <c r="C7" s="11">
         <v>73.333333333333329</v>
       </c>
+      <c r="D7" s="23">
+        <v>82.142857142857139</v>
+      </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>68.888888888888886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73.306878306878303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1925,12 +2729,15 @@
       <c r="C8" s="11">
         <v>86.666666666666671</v>
       </c>
+      <c r="D8" s="23">
+        <v>85.714285714285708</v>
+      </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>78.888888888888886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.164021164021165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1940,12 +2747,15 @@
       <c r="C9" s="11">
         <v>66.666666666666657</v>
       </c>
+      <c r="D9" s="23">
+        <v>85.714285714285708</v>
+      </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>64.444444444444443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71.534391534391531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1955,12 +2765,15 @@
       <c r="C10" s="11">
         <v>70</v>
       </c>
+      <c r="D10" s="23">
+        <v>71.428571428571431</v>
+      </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.142857142857153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1970,12 +2783,15 @@
       <c r="C11" s="11">
         <v>93.333333333333329</v>
       </c>
+      <c r="D11" s="23">
+        <v>78.571428571428569</v>
+      </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.746031746031747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1985,12 +2801,15 @@
       <c r="C12" s="11">
         <v>86.666666666666671</v>
       </c>
+      <c r="D12" s="23">
+        <v>96.428571428571431</v>
+      </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>76.666666666666657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83.253968253968253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2000,12 +2819,15 @@
       <c r="C13" s="11">
         <v>56.666666666666664</v>
       </c>
+      <c r="D13" s="23">
+        <v>60.714285714285708</v>
+      </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>57.222222222222214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.386243386243372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2015,12 +2837,15 @@
       <c r="C14" s="11">
         <v>93.333333333333329</v>
       </c>
+      <c r="D14" s="23">
+        <v>85.714285714285708</v>
+      </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>91.111111111111114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89.312169312169317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2030,12 +2855,15 @@
       <c r="C15" s="11">
         <v>66.666666666666657</v>
       </c>
+      <c r="D15" s="23">
+        <v>71.428571428571431</v>
+      </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70.476190476190482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2045,12 +2873,15 @@
       <c r="C16" s="11">
         <v>83.333333333333343</v>
       </c>
+      <c r="D16" s="23">
+        <v>78.571428571428569</v>
+      </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>76.111111111111114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76.931216931216923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2060,12 +2891,15 @@
       <c r="C17" s="11">
         <v>90</v>
       </c>
+      <c r="D17" s="23">
+        <v>78.571428571428569</v>
+      </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
-        <v>83.888888888888886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82.116402116402114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2075,12 +2909,15 @@
       <c r="C18" s="11">
         <v>96.666666666666671</v>
       </c>
+      <c r="D18" s="23">
+        <v>100</v>
+      </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>87.222222222222229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91.481481481481481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2090,12 +2927,15 @@
       <c r="C19" s="11">
         <v>53.333333333333336</v>
       </c>
+      <c r="D19" s="23">
+        <v>60.714285714285708</v>
+      </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>63.333333333333329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.460317460317448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2105,12 +2945,15 @@
       <c r="C20" s="11">
         <v>90</v>
       </c>
+      <c r="D20" s="23">
+        <v>89.285714285714292</v>
+      </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.761904761904759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2120,12 +2963,15 @@
       <c r="C21" s="11">
         <v>93.333333333333329</v>
       </c>
+      <c r="D21" s="23">
+        <v>82</v>
+      </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2135,12 +2981,15 @@
       <c r="C22" s="11">
         <v>96.666666666666671</v>
       </c>
+      <c r="D22" s="23">
+        <v>96.428571428571431</v>
+      </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>92.777777777777771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93.994708994709001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2150,12 +2999,15 @@
       <c r="C23" s="11">
         <v>56.666666666666664</v>
       </c>
+      <c r="D23" s="23">
+        <v>57</v>
+      </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>61.666666666666657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.111111111111107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2165,12 +3017,15 @@
       <c r="C24" s="11">
         <v>76.666666666666671</v>
       </c>
+      <c r="D24" s="24">
+        <v>43</v>
+      </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>68.333333333333343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.888888888888893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2180,12 +3035,15 @@
       <c r="C25" s="11">
         <v>83.333333333333343</v>
       </c>
+      <c r="D25" s="23">
+        <v>78.571428571428569</v>
+      </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>79.444444444444457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.153439153439152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2195,13 +3053,20 @@
       <c r="C26" s="11">
         <v>96.666666666666671</v>
       </c>
+      <c r="D26" s="23">
+        <v>92.857142857142861</v>
+      </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>82.777777777777771</v>
+        <v>86.137566137566139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F26" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}"/>
+  <autoFilter ref="A1:F26" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+      <sortCondition ref="A1:A26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tests/Results/2022/2022-T1.xlsx
+++ b/tests/Results/2022/2022-T1.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-nosql\tests\Results\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABADB13-62A9-4F60-9B59-A6077C2A884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B25F5-76F1-4F16-9F62-C3310D55B6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-180" windowWidth="29160" windowHeight="16560" activeTab="3" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
+    <workbookView xWindow="14376" yWindow="288" windowWidth="8664" windowHeight="9372" activeTab="4" xr2:uid="{C84B9029-3CD8-4B21-A277-26C88EEEF48E}"/>
   </bookViews>
   <sheets>
     <sheet name="teoria" sheetId="1" r:id="rId1"/>
     <sheet name="cassandra" sheetId="2" r:id="rId2"/>
     <sheet name="neo4j" sheetId="4" r:id="rId3"/>
-    <sheet name="totale" sheetId="3" r:id="rId4"/>
+    <sheet name="mongo" sheetId="5" r:id="rId4"/>
+    <sheet name="totale" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cassandra!$A$4:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">mongo!$A$4:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">neo4j!$A$4:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">teoria!$A$4:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">totale!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">totale!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
   <si>
     <t>sara.fava.studio@fitstic-edu.com</t>
   </si>
@@ -176,6 +178,9 @@
   </si>
   <si>
     <t>Voto</t>
+  </si>
+  <si>
+    <t>Voto Finale</t>
   </si>
 </sst>
 </file>
@@ -229,15 +234,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -247,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,12 +294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -303,10 +320,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,15 +675,15 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -646,7 +691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -654,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -668,7 +713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -684,7 +729,7 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,7 +745,7 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -716,7 +761,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -732,7 +777,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,7 +793,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -764,7 +809,7 @@
         <v>75.555555555555557</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -780,7 +825,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,7 +841,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -812,7 +857,7 @@
         <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -828,7 +873,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,7 +889,7 @@
         <v>71.111111111111114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -860,7 +905,7 @@
         <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,7 +921,7 @@
         <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,7 +937,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -908,7 +953,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -924,7 +969,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,7 +985,7 @@
         <v>64.444444444444443</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -956,7 +1001,7 @@
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -972,7 +1017,7 @@
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -988,7 +1033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,19 +1112,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F27D270-22EB-49D5-B444-6FDB73496703}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.15234375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="8"/>
+    <col min="3" max="3" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1095,11 +1140,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1168,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1181,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1194,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1162,7 +1207,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1220,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1233,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1246,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1259,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1272,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1285,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1298,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1311,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1324,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1337,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1350,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1363,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1376,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1389,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1402,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1415,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1428,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1396,7 +1441,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1454,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1422,7 +1467,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1434,403 +1479,403 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
@@ -1850,54 +1895,54 @@
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.15234375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.53515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="8"/>
+    <col min="1" max="1" width="38.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="15">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>21</v>
       </c>
       <c r="C5" s="10">
-        <f>B5/$C$1*100</f>
+        <f t="shared" ref="C5:C29" si="0">B5/$C$1*100</f>
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1905,11 +1950,11 @@
         <v>23</v>
       </c>
       <c r="C6" s="10">
-        <f>B6/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1917,23 +1962,23 @@
         <v>22</v>
       </c>
       <c r="C7" s="10">
-        <f>B7/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>25</v>
       </c>
       <c r="C8" s="10">
-        <f>B8/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>89.285714285714292</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1941,11 +1986,11 @@
         <v>22</v>
       </c>
       <c r="C9" s="10">
-        <f>B9/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1953,11 +1998,11 @@
         <v>23</v>
       </c>
       <c r="C10" s="10">
-        <f>B10/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1965,11 +2010,11 @@
         <v>24</v>
       </c>
       <c r="C11" s="10">
-        <f>B11/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1977,11 +2022,11 @@
         <v>24</v>
       </c>
       <c r="C12" s="10">
-        <f>B12/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1989,11 +2034,11 @@
         <v>20</v>
       </c>
       <c r="C13" s="10">
-        <f>B13/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2001,11 +2046,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="10">
-        <f>B14/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2013,11 +2058,11 @@
         <v>27</v>
       </c>
       <c r="C15" s="10">
-        <f>B15/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>96.428571428571431</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2025,11 +2070,11 @@
         <v>17</v>
       </c>
       <c r="C16" s="10">
-        <f>B16/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>60.714285714285708</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2037,11 +2082,11 @@
         <v>24</v>
       </c>
       <c r="C17" s="10">
-        <f>B17/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2049,23 +2094,23 @@
         <v>20</v>
       </c>
       <c r="C18" s="10">
-        <f>B18/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>22</v>
       </c>
       <c r="C19" s="10">
-        <f>B19/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2073,11 +2118,11 @@
         <v>22</v>
       </c>
       <c r="C20" s="10">
-        <f>B20/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2085,11 +2130,11 @@
         <v>28</v>
       </c>
       <c r="C21" s="10">
-        <f>B21/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2097,11 +2142,11 @@
         <v>17</v>
       </c>
       <c r="C22" s="10">
-        <f>B22/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>60.714285714285708</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2109,23 +2154,23 @@
         <v>25</v>
       </c>
       <c r="C23" s="10">
-        <f>B23/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>89.285714285714292</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>23</v>
       </c>
       <c r="C24" s="10">
-        <f>B24/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2133,35 +2178,35 @@
         <v>27</v>
       </c>
       <c r="C25" s="10">
-        <f>B25/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>96.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <v>16</v>
       </c>
       <c r="C26" s="10">
-        <f>B26/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="19">
         <v>12</v>
       </c>
       <c r="C27" s="10">
-        <f>B27/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2169,11 +2214,11 @@
         <v>22</v>
       </c>
       <c r="C28" s="10">
-        <f>B28/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2181,383 +2226,383 @@
         <v>26</v>
       </c>
       <c r="C29" s="10">
-        <f>B29/$C$1*100</f>
+        <f t="shared" si="0"/>
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="9"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="9"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="9"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
     </row>
@@ -2576,494 +2621,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3059B92-F291-4187-BF5C-0356A8157805}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="23">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" ref="C5:C29" si="0">B5/$C$1*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="23">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="23">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="23">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="23">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="0"/>
+        <v>63.333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="23">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="23">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="23">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="23">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="23">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" si="0"/>
+        <v>63.333333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23">
+        <v>23</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="23">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="23">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="23">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="23">
+        <v>28</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="0"/>
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="23">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="23">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="23">
+        <v>22</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:C29" xr:uid="{B3059B92-F291-4187-BF5C-0356A8157805}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C29">
+      <sortCondition ref="A4:A29"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="26">
         <v>77.777777777777786</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>83.333333333333343</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>75</v>
+      </c>
+      <c r="E2" s="29">
+        <v>76.666666666666671</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F26" si="0">AVERAGE(B2:E2)</f>
-        <v>78.703703703703709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>78.194444444444457</v>
+      </c>
+      <c r="G2" s="11">
+        <f>(SUM(B2:E2)-MIN(B2:E2))/3</f>
+        <v>79.259259259259281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="26">
         <v>71.111111111111114</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>96.666666666666671</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>82.142857142857139</v>
       </c>
+      <c r="E3" s="29">
+        <v>83.333333333333343</v>
+      </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
-        <v>83.306878306878303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>83.313492063492063</v>
+      </c>
+      <c r="G3" s="11">
+        <f>(SUM(B3:E3)-MIN(B3:E3))/3</f>
+        <v>87.380952380952365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="26">
         <v>62.222222222222221</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>80</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>78.571428571428569</v>
       </c>
+      <c r="E4" s="29">
+        <v>56.666666666666664</v>
+      </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>73.597883597883595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>69.365079365079367</v>
+      </c>
+      <c r="G4" s="11">
+        <f>(SUM(B4:E4)-MIN(B4:E4))/3</f>
+        <v>73.597883597883609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>83.333333333333343</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>79</v>
       </c>
+      <c r="E5" s="29">
+        <v>56.666666666666664</v>
+      </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>81.166666666666671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="G5" s="11">
+        <f>AVERAGE(C5:E5)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="26">
         <v>60</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>76.666666666666671</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>78.571428571428569</v>
       </c>
+      <c r="E6" s="29">
+        <v>63.333333333333329</v>
+      </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>71.746031746031747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>69.642857142857139</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G26" si="1">(SUM(B6:E6)-MIN(B6:E6))/3</f>
+        <v>72.857142857142847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="26">
         <v>64.444444444444443</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>73.333333333333329</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>82.142857142857139</v>
       </c>
+      <c r="E7" s="29">
+        <v>76.666666666666671</v>
+      </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>73.306878306878303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>74.146825396825392</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>77.380952380952365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="26">
         <v>71.111111111111114</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>86.666666666666671</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>85.714285714285708</v>
       </c>
+      <c r="E8" s="29">
+        <v>83.333333333333343</v>
+      </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>81.164021164021165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>81.706349206349216</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>85.238095238095255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="26">
         <v>62.222222222222221</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>66.666666666666657</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>85.714285714285708</v>
       </c>
+      <c r="E9" s="29">
+        <v>66.666666666666657</v>
+      </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>71.534391534391531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>70.317460317460302</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>73.015873015872998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="26">
         <v>60</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>70</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>71.428571428571431</v>
       </c>
+      <c r="E10" s="29">
+        <v>60</v>
+      </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
+        <v>65.357142857142861</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
         <v>67.142857142857153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="26">
         <v>73.333333333333329</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>93.333333333333329</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>78.571428571428569</v>
       </c>
+      <c r="E11" s="29">
+        <v>80</v>
+      </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>81.746031746031747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>81.30952380952381</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>83.968253968253975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="26">
         <v>66.666666666666657</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>86.666666666666671</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>96.428571428571431</v>
       </c>
+      <c r="E12" s="29">
+        <v>46.666666666666664</v>
+      </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>83.253968253968253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>74.107142857142861</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="1"/>
+        <v>83.253968253968267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="26">
         <v>57.777777777777771</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>56.666666666666664</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>60.714285714285708</v>
       </c>
+      <c r="E13" s="29">
+        <v>70</v>
+      </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>58.386243386243372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61.289682539682531</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="1"/>
+        <v>62.830687830687822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="26">
         <v>88.888888888888886</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>93.333333333333329</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <v>85.714285714285708</v>
       </c>
+      <c r="E14" s="29">
+        <v>83.333333333333343</v>
+      </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
+        <v>87.817460317460331</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
         <v>89.312169312169317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="26">
         <v>73.333333333333329</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>66.666666666666657</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>71.428571428571431</v>
       </c>
+      <c r="E15" s="29">
+        <v>76.666666666666671</v>
+      </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>70.476190476190482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>72.023809523809533</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>73.809523809523824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="26">
         <v>68.888888888888886</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>83.333333333333343</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <v>78.571428571428569</v>
       </c>
+      <c r="E16" s="29">
+        <v>63.333333333333329</v>
+      </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
+        <v>73.531746031746025</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="1"/>
         <v>76.931216931216923</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="26">
         <v>77.777777777777786</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>90</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>78.571428571428569</v>
       </c>
+      <c r="E17" s="29">
+        <v>76.666666666666671</v>
+      </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
+        <v>80.753968253968253</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="1"/>
         <v>82.116402116402114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="26">
         <v>77.777777777777786</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>96.666666666666671</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="21">
         <v>100</v>
       </c>
+      <c r="E18" s="29">
+        <v>76.666666666666671</v>
+      </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
+        <v>87.777777777777786</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="1"/>
         <v>91.481481481481481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="26">
         <v>73.333333333333329</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>53.333333333333336</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>60.714285714285708</v>
       </c>
+      <c r="E19" s="29">
+        <v>50</v>
+      </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
+        <v>59.345238095238088</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
         <v>62.460317460317448</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="26">
         <v>60</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>90</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="21">
         <v>89.285714285714292</v>
       </c>
+      <c r="E20" s="29">
+        <v>56.666666666666664</v>
+      </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>79.761904761904759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>73.988095238095241</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="1"/>
+        <v>79.761904761904773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="26">
         <v>66.666666666666657</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>93.333333333333329</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>82</v>
       </c>
+      <c r="E21" s="29">
+        <v>66.666666666666657</v>
+      </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>80.666666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>77.166666666666657</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="1"/>
+        <v>80.666666666666657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="26">
         <v>88.888888888888886</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>96.666666666666671</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="21">
         <v>96.428571428571431</v>
       </c>
+      <c r="E22" s="29">
+        <v>93.333333333333329</v>
+      </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>93.994708994709001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>93.829365079365076</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
+        <v>95.476190476190482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="26">
         <v>66.666666666666657</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>56.666666666666664</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="21">
         <v>57</v>
       </c>
+      <c r="E23" s="29">
+        <v>76.666666666666671</v>
+      </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>60.111111111111107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>64.25</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="1"/>
+        <v>66.777777777777786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="26">
         <v>60</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>76.666666666666671</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>43</v>
       </c>
+      <c r="E24" s="29">
+        <v>20</v>
+      </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
+        <v>49.916666666666671</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="1"/>
         <v>59.888888888888893</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="26">
         <v>75.555555555555557</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>83.333333333333343</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="21">
         <v>78.571428571428569</v>
       </c>
+      <c r="E25" s="29">
+        <v>33.333333333333329</v>
+      </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
+        <v>67.698412698412696</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="1"/>
         <v>79.153439153439152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="26">
         <v>68.888888888888886</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>96.666666666666671</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>92.857142857142861</v>
       </c>
+      <c r="E26" s="29">
+        <v>73.333333333333329</v>
+      </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>86.137566137566139</v>
+        <v>82.936507936507937</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>87.619047619047635</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F26" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+  <autoFilter ref="A1:G26" xr:uid="{3D294A4C-EFE3-480E-BFB1-07E18157B98C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
       <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
